--- a/Track Layout & Vehicle Data vF2.xlsx
+++ b/Track Layout & Vehicle Data vF2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/jsp69_pitt_edu/Documents/Engineering/ECE 1140/Module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{9A5CE479-AA10-45C3-90B6-35C871E9B29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97A023B1-7555-4F26-BB94-FA2A77BEA2D9}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{9A5CE479-AA10-45C3-90B6-35C871E9B29B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5D63935A-ABCC-4F24-A889-36FEE7C6CF60}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13965" yWindow="6375" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
